--- a/calculating avg pick.xlsx
+++ b/calculating avg pick.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24675" windowHeight="8685"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24675" windowHeight="8685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1334,7 +1334,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1682,11 +1682,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:BO334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="E234" sqref="E234"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62196,15 +62196,15 @@
         <v>418</v>
       </c>
       <c r="C245">
-        <f t="shared" ref="C245:C251" si="93">COUNTIF($F$4:$F$241,$B245)</f>
+        <f t="shared" ref="C245:C249" si="93">COUNTIF($F$4:$F$241,$B245)</f>
         <v>51</v>
       </c>
       <c r="D245">
-        <f t="shared" ref="D245:D251" si="94">COUNTIF($J$4:$J$241,$B245)</f>
+        <f t="shared" ref="D245:D249" si="94">COUNTIF($J$4:$J$241,$B245)</f>
         <v>53</v>
       </c>
       <c r="E245">
-        <f t="shared" ref="E245:E251" si="95">COUNTIF($N$4:$N$241,$B245)</f>
+        <f t="shared" ref="E245:E249" si="95">COUNTIF($N$4:$N$241,$B245)</f>
         <v>54</v>
       </c>
       <c r="F245">
